--- a/Team-Data/2008-09/4-7-2008-09.xlsx
+++ b/Team-Data/2008-09/4-7-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,7 +751,7 @@
         <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.457</v>
@@ -696,40 +763,40 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P2" t="n">
         <v>24.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R2" t="n">
         <v>10.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
         <v>19.5</v>
@@ -738,13 +805,13 @@
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,16 +826,16 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -777,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>14</v>
@@ -792,16 +859,16 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
         <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.449</v>
+        <v>0.442</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1054,22 +1121,22 @@
         <v>0.457</v>
       </c>
       <c r="L4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
@@ -1087,28 +1154,28 @@
         <v>15.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1144,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
@@ -1159,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>27</v>
@@ -1180,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -1227,13 +1294,13 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,16 +1309,16 @@
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
@@ -1260,28 +1327,28 @@
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>102</v>
@@ -1290,7 +1357,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1323,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1332,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1341,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1362,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
         <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K6" t="n">
         <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
@@ -1445,10 +1512,10 @@
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
@@ -1523,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>4</v>
@@ -1532,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1687,7 +1754,7 @@
         <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1714,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -1848,13 +1915,13 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1884,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2039,19 +2106,19 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2251,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>22</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.641</v>
+        <v>0.636</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2331,34 +2398,34 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P11" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.803</v>
+        <v>0.805</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
@@ -2367,7 +2434,7 @@
         <v>4.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
         <v>19</v>
@@ -2379,22 +2446,22 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>25</v>
@@ -2424,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2442,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY11" t="n">
         <v>24</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2597,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2624,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2734,19 +2801,19 @@
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,16 +2825,16 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2776,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
         <v>24</v>
@@ -2791,10 +2858,10 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -2865,37 +2932,37 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
         <v>44</v>
@@ -2904,31 +2971,31 @@
         <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
         <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,16 +3025,16 @@
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2988,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.289</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,7 +3117,7 @@
         <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.453</v>
@@ -3062,28 +3129,28 @@
         <v>13.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.361</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T15" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="U15" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
@@ -3095,7 +3162,7 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z15" t="n">
         <v>21.7</v>
@@ -3110,16 +3177,16 @@
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3131,34 +3198,34 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT15" t="n">
         <v>29</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>30</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="n">
-        <v>0.526</v>
+        <v>0.532</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.456</v>
@@ -3244,7 +3311,7 @@
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
@@ -3253,46 +3320,46 @@
         <v>23</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
         <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,10 +3371,10 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.444</v>
@@ -3423,37 +3490,37 @@
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,34 +3529,34 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3510,16 +3577,16 @@
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3531,7 +3598,7 @@
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.295</v>
+        <v>0.286</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,43 +3663,43 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N18" t="n">
         <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P18" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
         <v>6.2</v>
@@ -3650,40 +3717,40 @@
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3704,13 +3771,13 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3874,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n">
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J20" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
@@ -3978,28 +4045,28 @@
         <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
         <v>0.8080000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
         <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
         <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
         <v>4.2</v>
@@ -4020,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4032,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,22 +4108,22 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN20" t="n">
         <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4071,16 +4138,16 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J21" t="n">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.446</v>
@@ -4154,16 +4221,16 @@
         <v>28</v>
       </c>
       <c r="N21" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P21" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
@@ -4175,16 +4242,16 @@
         <v>42.2</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W21" t="n">
         <v>7.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
         <v>5.3</v>
@@ -4199,10 +4266,10 @@
         <v>105.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
         <v>13</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="n">
-        <v>0.273</v>
+        <v>0.276</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,34 +4391,34 @@
         <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.344</v>
       </c>
       <c r="O22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
         <v>25.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R22" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T22" t="n">
         <v>42.6</v>
@@ -4360,7 +4427,7 @@
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4369,28 +4436,28 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC22" t="n">
         <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
         <v>27</v>
@@ -4399,7 +4466,7 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4423,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
         <v>57</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4521,31 +4588,31 @@
         <v>0.386</v>
       </c>
       <c r="O23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
         <v>5.4</v>
@@ -4557,22 +4624,22 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="n">
         <v>3</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>4</v>
       </c>
       <c r="AG23" t="n">
         <v>4</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4632,16 +4699,16 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,16 +4755,16 @@
         <v>36.6</v>
       </c>
       <c r="J24" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.458</v>
       </c>
       <c r="L24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N24" t="n">
         <v>0.316</v>
@@ -4712,34 +4779,34 @@
         <v>0.745</v>
       </c>
       <c r="R24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
         <v>20.2</v>
       </c>
       <c r="V24" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB24" t="n">
         <v>97.2</v>
@@ -4748,7 +4815,7 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4766,22 +4833,22 @@
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,16 +4860,16 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4814,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4984,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>18</v>
@@ -4999,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -5037,13 +5104,13 @@
         <v>76</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.645</v>
+        <v>0.632</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,25 +5119,25 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.767</v>
@@ -5079,16 +5146,16 @@
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5097,31 +5164,31 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
@@ -5130,13 +5197,13 @@
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
@@ -5145,28 +5212,28 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" t="n">
-        <v>0.208</v>
+        <v>0.211</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,7 +5301,7 @@
         <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.449</v>
@@ -5243,19 +5310,19 @@
         <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P27" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R27" t="n">
         <v>10.1</v>
@@ -5264,7 +5331,7 @@
         <v>28.8</v>
       </c>
       <c r="T27" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5273,7 +5340,7 @@
         <v>15.6</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X27" t="n">
         <v>4.2</v>
@@ -5285,34 +5352,34 @@
         <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB27" t="n">
         <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
@@ -5339,22 +5406,22 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
       </c>
       <c r="G28" t="n">
-        <v>0.649</v>
+        <v>0.645</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,13 +5483,13 @@
         <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M28" t="n">
         <v>19.8</v>
@@ -5437,7 +5504,7 @@
         <v>19.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>8.800000000000001</v>
@@ -5464,7 +5531,7 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
         <v>18.3</v>
@@ -5473,10 +5540,10 @@
         <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5488,7 +5555,7 @@
         <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -5580,67 +5647,67 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J29" t="n">
         <v>80.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
         <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.827</v>
       </c>
       <c r="R29" t="n">
         <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
         <v>22.1</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W29" t="n">
         <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>4.5</v>
@@ -5652,19 +5719,19 @@
         <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
@@ -5673,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
@@ -5691,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5706,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5864,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5885,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
@@ -6028,19 +6095,19 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6058,10 +6125,10 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6073,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6082,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-7-2008-09</t>
+          <t>2009-04-07</t>
         </is>
       </c>
     </row>
